--- a/contoh_data.xlsx
+++ b/contoh_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\KULIAH\Semester 8\skripsi\deploy model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B3A065C-150C-47C2-A504-C8C84F0186B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F74C0E4-CE35-409B-B70B-8055817336C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -400,7 +400,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
